--- a/External/Sounds.xlsx
+++ b/External/Sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\UnityVR\ProjectDecryptionDystopia\External\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242AD842-AD4D-4FB4-A7FF-FAC0FE626506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE000D4-586E-4626-8197-E828F5403F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4940" yWindow="-18380" windowWidth="31610" windowHeight="15990" xr2:uid="{38C0B5DF-7AD3-40C7-BB91-D19D96FBD8A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Sound Description</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>door-open.wav</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>death.wav</t>
+  </si>
+  <si>
+    <t>{Using user moveable}</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -203,18 +212,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,9 +261,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
       <color rgb="FFCCFFFF"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFCCFFCC"/>
       <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
@@ -557,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D9375F4-D673-43C4-B55C-FC076650B3CA}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +617,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="1"/>
@@ -591,96 +629,98 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -690,6 +730,14 @@
       </c>
       <c r="B14" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
